--- a/meciuri_salvate_15-16.xlsx
+++ b/meciuri_salvate_15-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4679" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6479" uniqueCount="533">
   <si>
     <t>Premier League 15-16</t>
   </si>
@@ -22,15 +22,15 @@
     <t>Unibet</t>
   </si>
   <si>
+    <t>Fortuna</t>
+  </si>
+  <si>
     <t>Betfair</t>
   </si>
   <si>
     <t>NetBet</t>
   </si>
   <si>
-    <t>Fortuna</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -1225,9 +1225,15 @@
     <t>20</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>02.01.2016</t>
   </si>
   <si>
+    <t>6.70</t>
+  </si>
+  <si>
     <t>2.52</t>
   </si>
   <si>
@@ -1483,6 +1489,9 @@
     <t>1.23</t>
   </si>
   <si>
+    <t>11.75</t>
+  </si>
+  <si>
     <t>2.33</t>
   </si>
   <si>
@@ -1556,6 +1565,9 @@
   </si>
   <si>
     <t>1.39</t>
+  </si>
+  <si>
+    <t>15.25</t>
   </si>
   <si>
     <t>24.08.2015</t>
@@ -11597,6 +11609,33 @@
       <c r="H183" s="1" t="s">
         <v>288</v>
       </c>
+      <c r="I183" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="184" spans="1:17">
       <c r="A184" s="1" t="s">
@@ -11623,10 +11662,37 @@
       <c r="H184" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="I184" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="185" spans="1:17">
       <c r="A185" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>402</v>
@@ -11649,10 +11715,37 @@
       <c r="H185" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="I185" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="186" spans="1:17">
       <c r="A186" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>402</v>
@@ -11675,10 +11768,37 @@
       <c r="H186" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="I186" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="187" spans="1:17">
       <c r="A187" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>402</v>
@@ -11701,10 +11821,37 @@
       <c r="H187" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="I187" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="188" spans="1:17">
       <c r="A188" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>402</v>
@@ -11727,10 +11874,37 @@
       <c r="H188" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="I188" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="189" spans="1:17">
       <c r="A189" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>402</v>
@@ -11753,10 +11927,37 @@
       <c r="H189" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="I189" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="190" spans="1:17">
       <c r="A190" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>402</v>
@@ -11771,7 +11972,7 @@
         <v>31</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>305</v>
@@ -11779,10 +11980,37 @@
       <c r="H190" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="I190" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="191" spans="1:17">
       <c r="A191" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>402</v>
@@ -11805,10 +12033,37 @@
       <c r="H191" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="I191" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="192" spans="1:17">
       <c r="A192" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>402</v>
@@ -11826,18 +12081,45 @@
         <v>62</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>408</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17">
       <c r="A193" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C193" t="s">
         <v>101</v>
@@ -11849,7 +12131,7 @@
         <v>107</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>127</v>
@@ -11857,13 +12139,40 @@
       <c r="H193" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="C194" t="s">
         <v>43</v>
@@ -11883,13 +12192,40 @@
       <c r="H194" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="I194" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17">
       <c r="A195" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -11907,15 +12243,42 @@
         <v>25</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>414</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C196" t="s">
         <v>15</v>
@@ -11930,18 +12293,45 @@
         <v>174</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17">
       <c r="A197" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C197" t="s">
         <v>88</v>
@@ -11961,13 +12351,40 @@
       <c r="H197" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17">
       <c r="A198" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C198" t="s">
         <v>76</v>
@@ -11987,19 +12404,46 @@
       <c r="H198" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17">
       <c r="A199" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C199" t="s">
         <v>54</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E199" t="s">
         <v>86</v>
@@ -12013,13 +12457,40 @@
       <c r="H199" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17">
       <c r="A200" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C200" t="s">
         <v>56</v>
@@ -12039,13 +12510,40 @@
       <c r="H200" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17">
       <c r="A201" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C201" t="s">
         <v>99</v>
@@ -12065,13 +12563,40 @@
       <c r="H201" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17">
       <c r="A202" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C202" t="s">
         <v>106</v>
@@ -12091,13 +12616,40 @@
       <c r="H202" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17">
       <c r="A203" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C203" t="s">
         <v>74</v>
@@ -12117,13 +12669,40 @@
       <c r="H203" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17">
       <c r="A204" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C204" t="s">
         <v>65</v>
@@ -12141,15 +12720,42 @@
         <v>49</v>
       </c>
       <c r="H204" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q204" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17">
+      <c r="A205" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="B205" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C205" t="s">
         <v>31</v>
@@ -12169,13 +12775,40 @@
       <c r="H205" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17">
       <c r="A206" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C206" t="s">
         <v>17</v>
@@ -12195,13 +12828,40 @@
       <c r="H206" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q206" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17">
       <c r="A207" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C207" t="s">
         <v>41</v>
@@ -12221,13 +12881,40 @@
       <c r="H207" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="I207" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17">
       <c r="A208" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C208" t="s">
         <v>107</v>
@@ -12247,13 +12934,40 @@
       <c r="H208" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="I208" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17">
       <c r="A209" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C209" t="s">
         <v>92</v>
@@ -12271,15 +12985,42 @@
         <v>224</v>
       </c>
       <c r="H209" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17">
+      <c r="A210" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="C210" t="s">
         <v>91</v>
@@ -12299,13 +13040,40 @@
       <c r="H210" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17">
       <c r="A211" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C211" t="s">
         <v>67</v>
@@ -12323,15 +13091,42 @@
         <v>22</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>421</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17">
       <c r="A212" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C212" t="s">
         <v>86</v>
@@ -12351,13 +13146,40 @@
       <c r="H212" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P212" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q212" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17">
       <c r="A213" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -12375,15 +13197,42 @@
         <v>141</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>424</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P213" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17">
       <c r="A214" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C214" t="s">
         <v>91</v>
@@ -12403,13 +13252,40 @@
       <c r="H214" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="I214" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N214" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17">
       <c r="A215" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C215" t="s">
         <v>99</v>
@@ -12424,18 +13300,45 @@
         <v>311</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>419</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P215" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17">
       <c r="A216" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C216" t="s">
         <v>65</v>
@@ -12455,13 +13358,40 @@
       <c r="H216" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17">
       <c r="A217" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C217" t="s">
         <v>41</v>
@@ -12476,18 +13406,45 @@
         <v>164</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="I217" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M217" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
       <c r="A218" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C218" t="s">
         <v>54</v>
@@ -12507,13 +13464,40 @@
       <c r="H218" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P218" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
       <c r="A219" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C219" t="s">
         <v>15</v>
@@ -12528,18 +13512,45 @@
         <v>221</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P219" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17">
       <c r="A220" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C220" t="s">
         <v>74</v>
@@ -12559,13 +13570,40 @@
       <c r="H220" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="I220" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M220" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P220" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17">
       <c r="A221" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C221" t="s">
         <v>86</v>
@@ -12585,13 +13623,40 @@
       <c r="H221" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="I221" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M221" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P221" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17">
       <c r="A222" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C222" t="s">
         <v>106</v>
@@ -12611,13 +13676,40 @@
       <c r="H222" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="I222" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P222" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17">
       <c r="A223" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C223" t="s">
         <v>43</v>
@@ -12637,13 +13729,40 @@
       <c r="H223" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="I223" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M223" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17">
       <c r="A224" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C224" t="s">
         <v>107</v>
@@ -12661,15 +13780,42 @@
         <v>263</v>
       </c>
       <c r="H224" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M224" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N224" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17">
+      <c r="A225" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="C225" t="s">
         <v>67</v>
@@ -12689,13 +13835,40 @@
       <c r="H225" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="I225" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="P225" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17">
       <c r="A226" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C226" t="s">
         <v>31</v>
@@ -12707,7 +13880,7 @@
         <v>29</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>61</v>
@@ -12715,13 +13888,40 @@
       <c r="H226" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M226" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P226" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17">
       <c r="A227" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C227" t="s">
         <v>17</v>
@@ -12741,13 +13941,40 @@
       <c r="H227" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="I227" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N227" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P227" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17">
       <c r="A228" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C228" t="s">
         <v>76</v>
@@ -12765,15 +13992,42 @@
         <v>142</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>415</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P228" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17">
       <c r="A229" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C229" t="s">
         <v>92</v>
@@ -12793,13 +14047,40 @@
       <c r="H229" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="I229" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N229" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P229" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17">
       <c r="A230" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C230" t="s">
         <v>101</v>
@@ -12819,13 +14100,40 @@
       <c r="H230" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="I230" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M230" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N230" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P230" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17">
       <c r="A231" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C231" t="s">
         <v>88</v>
@@ -12837,7 +14145,7 @@
         <v>86</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>143</v>
@@ -12845,13 +14153,40 @@
       <c r="H231" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="I231" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M231" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P231" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17">
       <c r="A232" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C232" t="s">
         <v>56</v>
@@ -12863,21 +14198,48 @@
         <v>54</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>141</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>438</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17">
       <c r="A233" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C233" t="s">
         <v>54</v>
@@ -12897,13 +14259,40 @@
       <c r="H233" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="I233" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P233" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17">
       <c r="A234" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C234" t="s">
         <v>65</v>
@@ -12923,13 +14312,40 @@
       <c r="H234" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="I234" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17">
       <c r="A235" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C235" t="s">
         <v>41</v>
@@ -12949,13 +14365,40 @@
       <c r="H235" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="I235" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P235" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17">
       <c r="A236" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -12973,15 +14416,42 @@
         <v>227</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>443</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P236" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17">
       <c r="A237" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C237" t="s">
         <v>15</v>
@@ -12999,15 +14469,42 @@
         <v>24</v>
       </c>
       <c r="H237" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17">
+      <c r="A238" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C238" t="s">
         <v>74</v>
@@ -13025,15 +14522,42 @@
         <v>104</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>445</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M238" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P238" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17">
       <c r="A239" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C239" t="s">
         <v>91</v>
@@ -13045,7 +14569,7 @@
         <v>43</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>148</v>
@@ -13053,13 +14577,40 @@
       <c r="H239" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="I239" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P239" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q239" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17">
       <c r="A240" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C240" t="s">
         <v>99</v>
@@ -13071,7 +14622,7 @@
         <v>56</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>149</v>
@@ -13079,13 +14630,40 @@
       <c r="H240" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="I240" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P240" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q240" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17">
       <c r="A241" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C241" t="s">
         <v>106</v>
@@ -13103,15 +14681,42 @@
         <v>51</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>447</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P241" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
       <c r="A242" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C242" t="s">
         <v>86</v>
@@ -13131,13 +14736,40 @@
       <c r="H242" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="I242" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P242" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
       <c r="A243" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C243" t="s">
         <v>107</v>
@@ -13157,13 +14789,40 @@
       <c r="H243" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="I243" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P243" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q243" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
       <c r="A244" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C244" t="s">
         <v>56</v>
@@ -13175,7 +14834,7 @@
         <v>29</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>104</v>
@@ -13183,13 +14842,40 @@
       <c r="H244" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="I244" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M244" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="P244" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q244" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
       <c r="A245" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C245" t="s">
         <v>88</v>
@@ -13209,13 +14895,40 @@
       <c r="H245" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="I245" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P245" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q245" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
       <c r="A246" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C246" t="s">
         <v>67</v>
@@ -13235,13 +14948,40 @@
       <c r="H246" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="I246" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P246" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q246" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17">
       <c r="A247" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C247" t="s">
         <v>43</v>
@@ -13261,13 +15001,40 @@
       <c r="H247" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="I247" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P247" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q247" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
       <c r="A248" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C248" t="s">
         <v>31</v>
@@ -13279,7 +15046,7 @@
         <v>99</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>305</v>
@@ -13287,13 +15054,40 @@
       <c r="H248" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="I248" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P248" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q248" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
       <c r="A249" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C249" t="s">
         <v>17</v>
@@ -13313,13 +15107,40 @@
       <c r="H249" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="250" spans="1:8">
+      <c r="I249" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q249" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
       <c r="A250" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C250" t="s">
         <v>76</v>
@@ -13339,13 +15160,40 @@
       <c r="H250" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="251" spans="1:8">
+      <c r="I250" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P250" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q250" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
       <c r="A251" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C251" t="s">
         <v>92</v>
@@ -13365,13 +15213,40 @@
       <c r="H251" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="252" spans="1:8">
+      <c r="I251" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P251" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q251" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
       <c r="A252" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C252" t="s">
         <v>101</v>
@@ -13391,13 +15266,40 @@
       <c r="H252" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="253" spans="1:8">
+      <c r="I252" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P252" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q252" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
       <c r="A253" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C253" t="s">
         <v>76</v>
@@ -13417,13 +15319,40 @@
       <c r="H253" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="254" spans="1:8">
+      <c r="I253" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P253" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q253" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
       <c r="A254" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C254" t="s">
         <v>67</v>
@@ -13443,13 +15372,40 @@
       <c r="H254" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="255" spans="1:8">
+      <c r="I254" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P254" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q254" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
       <c r="A255" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="C255" t="s">
         <v>92</v>
@@ -13469,13 +15425,40 @@
       <c r="H255" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="256" spans="1:8">
+      <c r="I255" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O255" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P255" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q255" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
       <c r="A256" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="C256" t="s">
         <v>41</v>
@@ -13493,15 +15476,42 @@
         <v>24</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>456</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q256" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
       <c r="A257" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="C257" t="s">
         <v>54</v>
@@ -13521,13 +15531,40 @@
       <c r="H257" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="258" spans="1:8">
+      <c r="I257" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O257" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P257" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q257" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
       <c r="A258" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="C258" t="s">
         <v>65</v>
@@ -13545,15 +15582,42 @@
         <v>111</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>406</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q258" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
       <c r="A259" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="C259" t="s">
         <v>74</v>
@@ -13571,15 +15635,42 @@
         <v>48</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>428</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M259" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P259" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q259" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17">
       <c r="A260" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="C260" t="s">
         <v>91</v>
@@ -13599,13 +15690,40 @@
       <c r="H260" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="261" spans="1:8">
+      <c r="I260" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M260" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P260" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q260" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17">
       <c r="A261" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="C261" t="s">
         <v>106</v>
@@ -13625,13 +15743,40 @@
       <c r="H261" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="262" spans="1:8">
+      <c r="I261" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M261" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P261" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q261" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17">
       <c r="A262" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="C262" t="s">
         <v>99</v>
@@ -13649,15 +15794,42 @@
         <v>149</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>457</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M262" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O262" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P262" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q262" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
       <c r="A263" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -13669,7 +15841,7 @@
         <v>67</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>50</v>
@@ -13677,13 +15849,40 @@
       <c r="H263" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="264" spans="1:8">
+      <c r="I263" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O263" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P263" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q263" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
       <c r="A264" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C264" t="s">
         <v>107</v>
@@ -13703,13 +15902,40 @@
       <c r="H264" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="265" spans="1:8">
+      <c r="I264" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P264" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q264" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
       <c r="A265" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C265" t="s">
         <v>31</v>
@@ -13727,15 +15953,42 @@
         <v>96</v>
       </c>
       <c r="H265" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O265" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P265" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q265" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17">
+      <c r="A266" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="C266" t="s">
         <v>86</v>
@@ -13755,13 +16008,40 @@
       <c r="H266" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="267" spans="1:8">
+      <c r="I266" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P266" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q266" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
       <c r="A267" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C267" t="s">
         <v>43</v>
@@ -13781,13 +16061,40 @@
       <c r="H267" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="268" spans="1:8">
+      <c r="I267" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P267" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q267" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17">
       <c r="A268" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C268" t="s">
         <v>15</v>
@@ -13807,13 +16114,40 @@
       <c r="H268" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="269" spans="1:8">
+      <c r="I268" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O268" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="P268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q268" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17">
       <c r="A269" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C269" t="s">
         <v>56</v>
@@ -13833,13 +16167,40 @@
       <c r="H269" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="270" spans="1:8">
+      <c r="I269" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P269" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q269" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17">
       <c r="A270" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C270" t="s">
         <v>101</v>
@@ -13859,13 +16220,40 @@
       <c r="H270" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="271" spans="1:8">
+      <c r="I270" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O270" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P270" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q270" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
       <c r="A271" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C271" t="s">
         <v>88</v>
@@ -13885,13 +16273,40 @@
       <c r="H271" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="272" spans="1:8">
+      <c r="I271" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L271" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P271" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q271" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17">
       <c r="A272" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C272" t="s">
         <v>17</v>
@@ -13909,15 +16324,42 @@
         <v>111</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>463</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P272" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q272" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17">
       <c r="A273" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C273" t="s">
         <v>67</v>
@@ -13935,15 +16377,42 @@
         <v>69</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>466</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P273" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q273" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17">
       <c r="A274" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="C274" t="s">
         <v>74</v>
@@ -13963,19 +16432,46 @@
       <c r="H274" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="275" spans="1:8">
+      <c r="I274" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M274" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P274" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q274" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17">
       <c r="A275" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="C275" t="s">
         <v>54</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E275" t="s">
         <v>101</v>
@@ -13987,15 +16483,42 @@
         <v>222</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>445</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P275" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q275" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17">
       <c r="A276" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C276" t="s">
         <v>76</v>
@@ -14015,13 +16538,40 @@
       <c r="H276" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="277" spans="1:8">
+      <c r="I276" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P276" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q276" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17">
       <c r="A277" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C277" t="s">
         <v>92</v>
@@ -14041,13 +16591,40 @@
       <c r="H277" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="278" spans="1:8">
+      <c r="I277" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P277" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q277" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17">
       <c r="A278" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C278" t="s">
         <v>65</v>
@@ -14067,13 +16644,40 @@
       <c r="H278" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="279" spans="1:8">
+      <c r="I278" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M278" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P278" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q278" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17">
       <c r="A279" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C279" t="s">
         <v>91</v>
@@ -14093,13 +16697,40 @@
       <c r="H279" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="280" spans="1:8">
+      <c r="I279" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N279" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P279" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q279" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17">
       <c r="A280" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C280" t="s">
         <v>99</v>
@@ -14119,13 +16750,40 @@
       <c r="H280" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="281" spans="1:8">
+      <c r="I280" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P280" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q280" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17">
       <c r="A281" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C281" t="s">
         <v>106</v>
@@ -14145,13 +16803,40 @@
       <c r="H281" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="282" spans="1:8">
+      <c r="I281" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P281" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q281" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17">
       <c r="A282" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C282" t="s">
         <v>41</v>
@@ -14169,15 +16854,42 @@
         <v>148</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>470</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O282" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P282" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q282" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17">
       <c r="A283" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C283" t="s">
         <v>107</v>
@@ -14197,19 +16909,46 @@
       <c r="H283" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="284" spans="1:8">
+      <c r="I283" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M283" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N283" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O283" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P283" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q283" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17">
       <c r="A284" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C284" t="s">
         <v>17</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E284" t="s">
         <v>67</v>
@@ -14223,13 +16962,40 @@
       <c r="H284" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="285" spans="1:8">
+      <c r="I284" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M284" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N284" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P284" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q284" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17">
       <c r="A285" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C285" t="s">
         <v>15</v>
@@ -14249,13 +17015,40 @@
       <c r="H285" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="286" spans="1:8">
+      <c r="I285" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N285" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O285" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P285" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q285" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17">
       <c r="A286" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C286" t="s">
         <v>101</v>
@@ -14275,13 +17068,40 @@
       <c r="H286" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="287" spans="1:8">
+      <c r="I286" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M286" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N286" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O286" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P286" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q286" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17">
       <c r="A287" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -14301,13 +17121,40 @@
       <c r="H287" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="288" spans="1:8">
+      <c r="I287" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K287" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M287" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O287" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P287" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q287" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17">
       <c r="A288" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C288" t="s">
         <v>31</v>
@@ -14325,15 +17172,42 @@
         <v>142</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>436</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N288" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O288" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P288" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q288" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17">
       <c r="A289" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C289" t="s">
         <v>43</v>
@@ -14345,7 +17219,7 @@
         <v>76</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>111</v>
@@ -14353,13 +17227,40 @@
       <c r="H289" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="290" spans="1:8">
+      <c r="I289" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K289" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N289" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O289" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P289" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17">
       <c r="A290" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C290" t="s">
         <v>56</v>
@@ -14379,13 +17280,40 @@
       <c r="H290" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="291" spans="1:8">
+      <c r="I290" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O290" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P290" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17">
       <c r="A291" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C291" t="s">
         <v>86</v>
@@ -14405,13 +17333,40 @@
       <c r="H291" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="292" spans="1:8">
+      <c r="I291" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N291" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O291" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P291" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q291" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17">
       <c r="A292" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C292" t="s">
         <v>88</v>
@@ -14426,18 +17381,45 @@
         <v>71</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>477</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N292" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O292" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P292" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q292" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17">
       <c r="A293" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C293" t="s">
         <v>91</v>
@@ -14457,19 +17439,46 @@
       <c r="H293" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="294" spans="1:8">
+      <c r="I293" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M293" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N293" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O293" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P293" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q293" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17">
       <c r="A294" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C294" t="s">
         <v>65</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E294" t="s">
         <v>56</v>
@@ -14483,13 +17492,40 @@
       <c r="H294" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="295" spans="1:8">
+      <c r="I294" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N294" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O294" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P294" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q294" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17">
       <c r="A295" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C295" t="s">
         <v>99</v>
@@ -14509,13 +17545,40 @@
       <c r="H295" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="296" spans="1:8">
+      <c r="I295" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N295" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O295" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="P295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q295" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17">
       <c r="A296" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C296" t="s">
         <v>41</v>
@@ -14535,13 +17598,40 @@
       <c r="H296" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="297" spans="1:8">
+      <c r="I296" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K296" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N296" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O296" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P296" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q296" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17">
       <c r="A297" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C297" t="s">
         <v>76</v>
@@ -14561,13 +17651,40 @@
       <c r="H297" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="298" spans="1:8">
+      <c r="I297" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K297" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N297" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O297" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P297" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q297" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17">
       <c r="A298" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C298" t="s">
         <v>54</v>
@@ -14587,13 +17704,40 @@
       <c r="H298" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="299" spans="1:8">
+      <c r="I298" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K298" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N298" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O298" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P298" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q298" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17">
       <c r="A299" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C299" t="s">
         <v>92</v>
@@ -14613,13 +17757,40 @@
       <c r="H299" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="300" spans="1:8">
+      <c r="I299" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K299" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N299" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O299" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P299" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q299" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17">
       <c r="A300" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C300" t="s">
         <v>74</v>
@@ -14634,18 +17805,45 @@
         <v>121</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="301" spans="1:8">
+      <c r="I300" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N300" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O300" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P300" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q300" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17">
       <c r="A301" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C301" t="s">
         <v>106</v>
@@ -14657,7 +17855,7 @@
         <v>101</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>149</v>
@@ -14665,13 +17863,40 @@
       <c r="H301" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="302" spans="1:8">
+      <c r="I301" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N301" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O301" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P301" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q301" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17">
       <c r="A302" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C302" t="s">
         <v>67</v>
@@ -14691,13 +17916,40 @@
       <c r="H302" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="303" spans="1:8">
+      <c r="I302" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M302" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N302" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O302" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P302" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q302" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17">
       <c r="A303" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -14709,7 +17961,7 @@
         <v>15</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>260</v>
@@ -14717,13 +17969,40 @@
       <c r="H303" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="304" spans="1:8">
+      <c r="I303" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K303" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M303" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N303" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O303" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P303" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q303" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17">
       <c r="A304" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C304" t="s">
         <v>91</v>
@@ -14743,13 +18022,40 @@
       <c r="H304" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="305" spans="1:8">
+      <c r="I304" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K304" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N304" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O304" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P304" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q304" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17">
       <c r="A305" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C305" t="s">
         <v>54</v>
@@ -14764,18 +18070,45 @@
         <v>130</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="306" spans="1:8">
+      <c r="I305" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K305" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M305" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O305" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P305" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q305" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17">
       <c r="A306" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C306" t="s">
         <v>41</v>
@@ -14787,7 +18120,7 @@
         <v>74</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>51</v>
@@ -14795,13 +18128,40 @@
       <c r="H306" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="307" spans="1:8">
+      <c r="I306" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K306" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M306" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N306" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O306" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P306" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q306" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17">
       <c r="A307" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C307" t="s">
         <v>31</v>
@@ -14821,13 +18181,40 @@
       <c r="H307" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="308" spans="1:8">
+      <c r="I307" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K307" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N307" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O307" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P307" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q307" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17">
       <c r="A308" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C308" t="s">
         <v>17</v>
@@ -14847,25 +18234,52 @@
       <c r="H308" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="309" spans="1:8">
+      <c r="I308" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K308" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N308" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O308" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P308" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q308" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17">
       <c r="A309" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C309" t="s">
         <v>92</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E309" t="s">
         <v>65</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>94</v>
@@ -14873,13 +18287,40 @@
       <c r="H309" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="310" spans="1:8">
+      <c r="I309" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N309" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O309" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P309" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q309" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17">
       <c r="A310" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C310" t="s">
         <v>56</v>
@@ -14899,13 +18340,40 @@
       <c r="H310" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="311" spans="1:8">
+      <c r="I310" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K310" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N310" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O310" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P310" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q310" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17">
       <c r="A311" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C311" t="s">
         <v>101</v>
@@ -14920,18 +18388,45 @@
         <v>144</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>492</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K311" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N311" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O311" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P311" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q311" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17">
       <c r="A312" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C312" t="s">
         <v>76</v>
@@ -14951,13 +18446,40 @@
       <c r="H312" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="313" spans="1:8">
+      <c r="I312" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K312" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L312" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M312" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N312" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O312" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P312" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q312" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17">
       <c r="A313" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C313" t="s">
         <v>106</v>
@@ -14977,13 +18499,40 @@
       <c r="H313" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="314" spans="1:8">
+      <c r="I313" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K313" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L313" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M313" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N313" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O313" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P313" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q313" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17">
       <c r="A314" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C314" t="s">
         <v>99</v>
@@ -15003,13 +18552,40 @@
       <c r="H314" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="315" spans="1:8">
+      <c r="I314" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K314" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L314" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M314" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N314" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O314" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P314" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q314" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17">
       <c r="A315" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C315" t="s">
         <v>65</v>
@@ -15029,25 +18605,52 @@
       <c r="H315" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="316" spans="1:8">
+      <c r="I315" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K315" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L315" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M315" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N315" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O315" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P315" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q315" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17">
       <c r="A316" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C316" t="s">
         <v>43</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E316" t="s">
         <v>29</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G316" s="1" t="s">
         <v>50</v>
@@ -15055,13 +18658,40 @@
       <c r="H316" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="317" spans="1:8">
+      <c r="I316" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K316" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L316" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M316" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N316" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O316" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P316" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q316" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17">
       <c r="A317" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C317" t="s">
         <v>107</v>
@@ -15081,13 +18711,40 @@
       <c r="H317" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="318" spans="1:8">
+      <c r="I317" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K317" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L317" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M317" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N317" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O317" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P317" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q317" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17">
       <c r="A318" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C318" t="s">
         <v>15</v>
@@ -15099,21 +18756,48 @@
         <v>101</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H318" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K318" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L318" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M318" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N318" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O318" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P318" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q318" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17">
+      <c r="A319" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="B319" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C319" t="s">
         <v>74</v>
@@ -15133,13 +18817,40 @@
       <c r="H319" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="320" spans="1:8">
+      <c r="I319" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K319" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L319" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M319" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N319" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O319" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P319" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q319" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17">
       <c r="A320" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C320" t="s">
         <v>86</v>
@@ -15159,13 +18870,40 @@
       <c r="H320" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="321" spans="1:8">
+      <c r="I320" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K320" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M320" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N320" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O320" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P320" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q320" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17">
       <c r="A321" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C321" t="s">
         <v>88</v>
@@ -15185,13 +18923,40 @@
       <c r="H321" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="322" spans="1:8">
+      <c r="I321" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K321" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L321" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M321" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N321" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O321" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P321" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q321" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17">
       <c r="A322" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C322" t="s">
         <v>67</v>
@@ -15211,13 +18976,40 @@
       <c r="H322" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="323" spans="1:8">
+      <c r="I322" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K322" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L322" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M322" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N322" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O322" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P322" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q322" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17">
       <c r="A323" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C323" t="s">
         <v>107</v>
@@ -15237,13 +19029,40 @@
       <c r="H323" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="324" spans="1:8">
+      <c r="I323" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K323" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L323" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M323" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N323" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O323" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P323" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q323" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17">
       <c r="A324" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C324" t="s">
         <v>74</v>
@@ -15263,13 +19082,40 @@
       <c r="H324" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="325" spans="1:8">
+      <c r="I324" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K324" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M324" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N324" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O324" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P324" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q324" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17">
       <c r="A325" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C325" t="s">
         <v>67</v>
@@ -15289,13 +19135,40 @@
       <c r="H325" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="326" spans="1:8">
+      <c r="I325" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K325" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L325" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M325" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N325" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O325" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P325" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q325" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17">
       <c r="A326" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C326" t="s">
         <v>92</v>
@@ -15315,13 +19188,40 @@
       <c r="H326" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="327" spans="1:8">
+      <c r="I326" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K326" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L326" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M326" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N326" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O326" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P326" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q326" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17">
       <c r="A327" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C327" t="s">
         <v>31</v>
@@ -15336,18 +19236,45 @@
         <v>178</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="328" spans="1:8">
+      <c r="I327" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K327" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L327" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M327" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N327" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O327" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P327" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q327" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17">
       <c r="A328" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C328" t="s">
         <v>17</v>
@@ -15367,13 +19294,40 @@
       <c r="H328" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="329" spans="1:8">
+      <c r="I328" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K328" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L328" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M328" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N328" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O328" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P328" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q328" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17">
       <c r="A329" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C329" t="s">
         <v>65</v>
@@ -15393,13 +19347,40 @@
       <c r="H329" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="330" spans="1:8">
+      <c r="I329" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K329" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L329" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M329" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N329" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O329" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P329" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q329" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17">
       <c r="A330" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C330" t="s">
         <v>86</v>
@@ -15419,13 +19400,40 @@
       <c r="H330" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="331" spans="1:8">
+      <c r="I330" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K330" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L330" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M330" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N330" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O330" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P330" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q330" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17">
       <c r="A331" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C331" t="s">
         <v>91</v>
@@ -15437,7 +19445,7 @@
         <v>54</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>149</v>
@@ -15445,13 +19453,40 @@
       <c r="H331" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="332" spans="1:8">
+      <c r="I331" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K331" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L331" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M331" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N331" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O331" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P331" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q331" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17">
       <c r="A332" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C332" t="s">
         <v>41</v>
@@ -15463,21 +19498,48 @@
         <v>29</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>393</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+        <v>506</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K332" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L332" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M332" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N332" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O332" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P332" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q332" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17">
       <c r="A333" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C333" t="s">
         <v>88</v>
@@ -15497,13 +19559,40 @@
       <c r="H333" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="334" spans="1:8">
+      <c r="I333" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K333" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M333" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N333" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O333" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P333" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q333" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17">
       <c r="A334" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C334" t="s">
         <v>43</v>
@@ -15523,13 +19612,40 @@
       <c r="H334" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="335" spans="1:8">
+      <c r="I334" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K334" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L334" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M334" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N334" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O334" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P334" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q334" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17">
       <c r="A335" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C335" t="s">
         <v>101</v>
@@ -15547,15 +19663,42 @@
         <v>111</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>510</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K335" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L335" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M335" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N335" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O335" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P335" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q335" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17">
       <c r="A336" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C336" t="s">
         <v>15</v>
@@ -15575,13 +19718,40 @@
       <c r="H336" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="337" spans="1:8">
+      <c r="I336" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L336" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M336" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N336" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O336" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P336" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q336" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17">
       <c r="A337" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C337" t="s">
         <v>29</v>
@@ -15601,13 +19771,40 @@
       <c r="H337" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="338" spans="1:8">
+      <c r="I337" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K337" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L337" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M337" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N337" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O337" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P337" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q337" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17">
       <c r="A338" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C338" t="s">
         <v>76</v>
@@ -15627,13 +19824,40 @@
       <c r="H338" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="339" spans="1:8">
+      <c r="I338" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K338" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L338" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M338" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N338" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O338" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P338" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q338" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17">
       <c r="A339" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C339" t="s">
         <v>56</v>
@@ -15653,13 +19877,40 @@
       <c r="H339" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="340" spans="1:8">
+      <c r="I339" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K339" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L339" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M339" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N339" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O339" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P339" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q339" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17">
       <c r="A340" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C340" t="s">
         <v>99</v>
@@ -15679,13 +19930,40 @@
       <c r="H340" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="341" spans="1:8">
+      <c r="I340" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K340" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M340" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N340" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O340" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P340" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q340" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17">
       <c r="A341" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C341" t="s">
         <v>106</v>
@@ -15705,13 +19983,40 @@
       <c r="H341" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="342" spans="1:8">
+      <c r="I341" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K341" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L341" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M341" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N341" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O341" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P341" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q341" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17">
       <c r="A342" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C342" t="s">
         <v>54</v>
@@ -15731,13 +20036,40 @@
       <c r="H342" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="343" spans="1:8">
+      <c r="I342" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K342" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L342" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M342" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N342" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O342" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P342" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q342" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17">
       <c r="A343" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C343" t="s">
         <v>91</v>
@@ -15757,13 +20089,40 @@
       <c r="H343" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="344" spans="1:8">
+      <c r="I343" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K343" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L343" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M343" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N343" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O343" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P343" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q343" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17">
       <c r="A344" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C344" t="s">
         <v>74</v>
@@ -15781,15 +20140,42 @@
         <v>149</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>514</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K344" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L344" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M344" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N344" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O344" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P344" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q344" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17">
       <c r="A345" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C345" t="s">
         <v>67</v>
@@ -15809,13 +20195,40 @@
       <c r="H345" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="346" spans="1:8">
+      <c r="I345" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K345" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L345" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M345" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N345" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O345" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P345" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q345" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17">
       <c r="A346" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C346" t="s">
         <v>31</v>
@@ -15835,13 +20248,40 @@
       <c r="H346" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="347" spans="1:8">
+      <c r="I346" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K346" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L346" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M346" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N346" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O346" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P346" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q346" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17">
       <c r="A347" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C347" t="s">
         <v>17</v>
@@ -15861,13 +20301,40 @@
       <c r="H347" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="348" spans="1:8">
+      <c r="I347" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K347" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M347" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N347" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O347" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P347" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q347" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17">
       <c r="A348" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C348" t="s">
         <v>41</v>
@@ -15879,7 +20346,7 @@
         <v>76</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>375</v>
@@ -15887,13 +20354,40 @@
       <c r="H348" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="349" spans="1:8">
+      <c r="I348" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K348" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L348" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M348" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N348" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O348" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P348" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q348" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17">
       <c r="A349" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C349" t="s">
         <v>107</v>
@@ -15913,13 +20407,40 @@
       <c r="H349" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="350" spans="1:8">
+      <c r="I349" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K349" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L349" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M349" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N349" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O349" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P349" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q349" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17">
       <c r="A350" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C350" t="s">
         <v>92</v>
@@ -15939,13 +20460,40 @@
       <c r="H350" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="351" spans="1:8">
+      <c r="I350" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K350" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L350" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M350" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N350" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O350" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="P350" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q350" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17">
       <c r="A351" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C351" t="s">
         <v>86</v>
@@ -15965,13 +20513,40 @@
       <c r="H351" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="352" spans="1:8">
+      <c r="I351" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K351" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L351" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M351" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N351" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O351" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P351" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q351" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17">
       <c r="A352" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C352" t="s">
         <v>65</v>
@@ -15991,13 +20566,40 @@
       <c r="H352" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="353" spans="1:8">
+      <c r="I352" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K352" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L352" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M352" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N352" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O352" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P352" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q352" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17">
       <c r="A353" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C353" t="s">
         <v>29</v>
@@ -16009,7 +20611,7 @@
         <v>107</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G353" s="1" t="s">
         <v>63</v>
@@ -16017,13 +20619,40 @@
       <c r="H353" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="354" spans="1:8">
+      <c r="I353" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K353" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L353" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M353" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N353" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O353" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P353" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q353" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17">
       <c r="A354" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C354" t="s">
         <v>54</v>
@@ -16043,13 +20672,40 @@
       <c r="H354" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="355" spans="1:8">
+      <c r="I354" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L354" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M354" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N354" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O354" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P354" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q354" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17">
       <c r="A355" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C355" t="s">
         <v>99</v>
@@ -16061,7 +20717,7 @@
         <v>74</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G355" s="1" t="s">
         <v>142</v>
@@ -16069,13 +20725,40 @@
       <c r="H355" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="356" spans="1:8">
+      <c r="I355" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L355" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M355" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N355" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O355" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P355" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q355" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17">
       <c r="A356" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C356" t="s">
         <v>106</v>
@@ -16095,13 +20778,40 @@
       <c r="H356" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="357" spans="1:8">
+      <c r="I356" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K356" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L356" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M356" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N356" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O356" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P356" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q356" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="357" spans="1:17">
       <c r="A357" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C357" t="s">
         <v>76</v>
@@ -16113,7 +20823,7 @@
         <v>31</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G357" s="1" t="s">
         <v>89</v>
@@ -16121,13 +20831,40 @@
       <c r="H357" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="358" spans="1:8">
+      <c r="I357" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K357" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L357" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M357" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N357" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O357" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P357" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q357" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="1:17">
       <c r="A358" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C358" t="s">
         <v>43</v>
@@ -16147,13 +20884,40 @@
       <c r="H358" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="359" spans="1:8">
+      <c r="I358" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K358" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L358" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M358" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N358" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O358" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P358" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q358" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="359" spans="1:17">
       <c r="A359" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C359" t="s">
         <v>56</v>
@@ -16173,13 +20937,40 @@
       <c r="H359" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="360" spans="1:8">
+      <c r="I359" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K359" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L359" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M359" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N359" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O359" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P359" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q359" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17">
       <c r="A360" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C360" t="s">
         <v>101</v>
@@ -16199,19 +20990,46 @@
       <c r="H360" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="361" spans="1:8">
+      <c r="I360" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K360" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L360" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M360" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N360" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O360" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P360" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q360" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17">
       <c r="A361" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C361" t="s">
         <v>88</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E361" t="s">
         <v>17</v>
@@ -16225,13 +21043,40 @@
       <c r="H361" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="362" spans="1:8">
+      <c r="I361" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K361" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L361" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M361" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N361" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O361" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P361" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q361" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="362" spans="1:17">
       <c r="A362" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C362" t="s">
         <v>15</v>
@@ -16251,10 +21096,37 @@
       <c r="H362" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="363" spans="1:8">
+      <c r="I362" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K362" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L362" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M362" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N362" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O362" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P362" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q362" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="363" spans="1:17">
       <c r="A363" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>12</v>
@@ -16275,12 +21147,39 @@
         <v>104</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
+        <v>524</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K363" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L363" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M363" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N363" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O363" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P363" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q363" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="364" spans="1:17">
       <c r="A364" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>12</v>
@@ -16295,7 +21194,7 @@
         <v>41</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G364" s="1" t="s">
         <v>111</v>
@@ -16303,10 +21202,37 @@
       <c r="H364" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="365" spans="1:8">
+      <c r="I364" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K364" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L364" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M364" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N364" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O364" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P364" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q364" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17">
       <c r="A365" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>12</v>
@@ -16329,10 +21255,37 @@
       <c r="H365" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="366" spans="1:8">
+      <c r="I365" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K365" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L365" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M365" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N365" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O365" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P365" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q365" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17">
       <c r="A366" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>12</v>
@@ -16355,10 +21308,37 @@
       <c r="H366" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="367" spans="1:8">
+      <c r="I366" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K366" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L366" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M366" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N366" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O366" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P366" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q366" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17">
       <c r="A367" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>12</v>
@@ -16373,7 +21353,7 @@
         <v>65</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G367" s="1" t="s">
         <v>89</v>
@@ -16381,10 +21361,37 @@
       <c r="H367" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="368" spans="1:8">
+      <c r="I367" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K367" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L367" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M367" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N367" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O367" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P367" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q367" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17">
       <c r="A368" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>12</v>
@@ -16407,10 +21414,37 @@
       <c r="H368" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="369" spans="1:8">
+      <c r="I368" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K368" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L368" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M368" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N368" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O368" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P368" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q368" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17">
       <c r="A369" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>12</v>
@@ -16433,10 +21467,37 @@
       <c r="H369" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="370" spans="1:8">
+      <c r="I369" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J369" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K369" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L369" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M369" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N369" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O369" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P369" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q369" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17">
       <c r="A370" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>12</v>
@@ -16459,10 +21520,37 @@
       <c r="H370" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="371" spans="1:8">
+      <c r="I370" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K370" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L370" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M370" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N370" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O370" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P370" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q370" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17">
       <c r="A371" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>12</v>
@@ -16485,10 +21573,37 @@
       <c r="H371" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="372" spans="1:8">
+      <c r="I371" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J371" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K371" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L371" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M371" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N371" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O371" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P371" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q371" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17">
       <c r="A372" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>12</v>
@@ -16511,10 +21626,37 @@
       <c r="H372" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="373" spans="1:8">
+      <c r="I372" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K372" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L372" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M372" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N372" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O372" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P372" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q372" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17">
       <c r="A373" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>10</v>
@@ -16537,10 +21679,37 @@
       <c r="H373" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="374" spans="1:8">
+      <c r="I373" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J373" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K373" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L373" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M373" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N373" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O373" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="P373" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q373" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17">
       <c r="A374" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>10</v>
@@ -16561,12 +21730,39 @@
         <v>148</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
+        <v>504</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J374" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K374" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L374" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M374" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N374" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O374" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P374" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q374" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17">
       <c r="A375" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>10</v>
@@ -16587,12 +21783,39 @@
         <v>83</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
+        <v>531</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K375" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L375" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M375" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N375" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O375" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P375" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q375" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17">
       <c r="A376" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>10</v>
@@ -16615,10 +21838,37 @@
       <c r="H376" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="377" spans="1:8">
+      <c r="I376" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K376" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L376" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M376" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N376" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O376" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P376" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q376" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17">
       <c r="A377" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>10</v>
@@ -16641,10 +21891,37 @@
       <c r="H377" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="378" spans="1:8">
+      <c r="I377" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J377" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K377" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L377" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M377" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N377" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O377" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P377" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q377" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17">
       <c r="A378" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>10</v>
@@ -16667,10 +21944,37 @@
       <c r="H378" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="379" spans="1:8">
+      <c r="I378" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K378" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L378" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M378" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N378" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O378" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P378" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q378" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17">
       <c r="A379" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>10</v>
@@ -16693,10 +21997,37 @@
       <c r="H379" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="380" spans="1:8">
+      <c r="I379" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K379" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L379" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M379" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N379" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O379" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P379" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q379" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17">
       <c r="A380" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>10</v>
@@ -16719,10 +22050,37 @@
       <c r="H380" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="381" spans="1:8">
+      <c r="I380" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K380" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L380" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M380" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N380" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O380" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P380" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q380" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17">
       <c r="A381" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>10</v>
@@ -16745,10 +22103,37 @@
       <c r="H381" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="382" spans="1:8">
+      <c r="I381" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K381" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L381" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M381" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N381" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O381" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P381" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q381" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17">
       <c r="A382" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>10</v>
@@ -16770,6 +22155,33 @@
       </c>
       <c r="H382" s="1" t="s">
         <v>167</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K382" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L382" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M382" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N382" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O382" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P382" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q382" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
